--- a/data/unchecked/manual_collect/china/jilin/jilinCaseStatistics_20200218.xlsx
+++ b/data/unchecked/manual_collect/china/jilin/jilinCaseStatistics_20200218.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18127\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\2.1核查\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6BCB08-F1CA-4EBC-BBE9-F4E559FE257A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -397,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9332" uniqueCount="3298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9335" uniqueCount="3301">
   <si>
     <t>统计级别</t>
   </si>
@@ -10266,9 +10265,6 @@
   </si>
   <si>
     <t>王腾</t>
-  </si>
-  <si>
-    <t>未核查</t>
   </si>
   <si>
     <t>城市级</t>
@@ -10304,11 +10300,27 @@
 　　近期正值复工返程高峰，人员流动性加大，广大群众应注意避免到人群密集场所，做好个人防护，勤洗手，戴口罩，少出门，勿聚集，保护好自己和家人的健康。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>已核查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭泽添</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核查通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10779,50 +10791,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.375" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5" style="12" customWidth="1"/>
+    <col min="20" max="20" width="31.875" style="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" style="12" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.5" style="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.5" style="12" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.90625" style="12"/>
+    <col min="40" max="40" width="5.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="16" customFormat="1" ht="16.2">
+    <row r="1" spans="1:40" s="16" customFormat="1" ht="15">
       <c r="A1" s="14" t="s">
         <v>3251</v>
       </c>
@@ -10982,22 +10994,22 @@
         <v>1</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W2" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z2" s="18">
         <v>43880.444444444445</v>
@@ -11009,15 +11021,27 @@
         <v>3288</v>
       </c>
       <c r="AC2" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+      <c r="AD2" s="18">
+        <v>43880.46875</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>3298</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>3299</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C3" s="18">
         <v>43879</v>
@@ -11041,22 +11065,22 @@
         <v>19</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W3" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y3" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z3" s="18">
         <v>43880.444444444445</v>
@@ -11068,15 +11092,15 @@
         <v>3288</v>
       </c>
       <c r="AC3" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C4" s="18">
         <v>43879</v>
@@ -11100,22 +11124,22 @@
         <v>3</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U4" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W4" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y4" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z4" s="18">
         <v>43880.444444444445</v>
@@ -11127,15 +11151,15 @@
         <v>3288</v>
       </c>
       <c r="AC4" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C5" s="18">
         <v>43879</v>
@@ -11165,22 +11189,22 @@
         <v>1</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U5" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W5" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z5" s="18">
         <v>43880.444444444445</v>
@@ -11192,15 +11216,15 @@
         <v>3288</v>
       </c>
       <c r="AC5" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C6" s="18">
         <v>43879</v>
@@ -11224,22 +11248,22 @@
         <v>1</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U6" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W6" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z6" s="18">
         <v>43880.444444444445</v>
@@ -11251,15 +11275,15 @@
         <v>3288</v>
       </c>
       <c r="AC6" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C7" s="18">
         <v>43879</v>
@@ -11283,22 +11307,22 @@
         <v>2</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U7" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V7" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W7" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z7" s="18">
         <v>43880.444444444445</v>
@@ -11310,15 +11334,15 @@
         <v>3288</v>
       </c>
       <c r="AC7" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C8" s="18">
         <v>43879</v>
@@ -11336,22 +11360,22 @@
         <v>192</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W8" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X8" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z8" s="18">
         <v>43880.444444444445</v>
@@ -11363,15 +11387,15 @@
         <v>3288</v>
       </c>
       <c r="AC8" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C9" s="18">
         <v>43879</v>
@@ -11395,22 +11419,22 @@
         <v>1</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W9" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z9" s="18">
         <v>43880.444444444445</v>
@@ -11422,15 +11446,15 @@
         <v>3288</v>
       </c>
       <c r="AC9" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C10" s="18">
         <v>43879</v>
@@ -11451,22 +11475,22 @@
         <v>1</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W10" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z10" s="18">
         <v>43880.444444444445</v>
@@ -11478,15 +11502,15 @@
         <v>3288</v>
       </c>
       <c r="AC10" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C11" s="18">
         <v>43879</v>
@@ -11513,22 +11537,22 @@
         <v>4</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U11" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W11" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z11" s="18">
         <v>43880.444444444445</v>
@@ -11540,15 +11564,15 @@
         <v>3288</v>
       </c>
       <c r="AC11" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C12" s="18">
         <v>43879</v>
@@ -11563,28 +11587,28 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="J12" s="17">
         <v>11</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W12" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X12" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z12" s="18">
         <v>43880.444444444445</v>
@@ -11596,15 +11620,15 @@
         <v>3288</v>
       </c>
       <c r="AC12" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="C13" s="18">
         <v>43879</v>
@@ -11631,22 +11655,22 @@
         <v>2</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U13" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W13" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X13" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z13" s="18">
         <v>43880.444444444445</v>
@@ -11658,15 +11682,15 @@
         <v>3288</v>
       </c>
       <c r="AC13" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="C14" s="18">
         <v>43879</v>
@@ -11693,22 +11717,22 @@
         <v>1</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W14" s="18">
         <v>43880.333333333336</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="Z14" s="18">
         <v>43880.444444444445</v>
@@ -11720,17 +11744,17 @@
         <v>3288</v>
       </c>
       <c r="AC14" s="17" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" s="17" customFormat="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="T15" s="18"/>
       <c r="V15" s="19"/>
       <c r="Z15" s="18"/>
     </row>
-    <row r="16" spans="1:40" s="17" customFormat="1">
+    <row r="16" spans="1:40" s="17" customFormat="1" ht="15.75">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="T16" s="18"/>
@@ -11740,55 +11764,55 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AK2:AK1048576 AE2:AE1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AK2:AK1048576 AE2:AE1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E9:E12 E15:E16" xr:uid="{F5E1B5D7-9ABA-4A48-BDD3-629230469C8E}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E9:E12 E15:E16">
       <formula1>INDIRECT($D9)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" xr:uid="{87D32933-87DF-43B2-A2EB-DBA388F58D8E}"/>
-    <hyperlink ref="V3:V14" r:id="rId2" display="http://www.jl.gov.cn/szfzt/jlzxd/yqtb/202002/t20200219_6840295.html" xr:uid="{D6135FC4-55F0-4FA1-9227-1CF72F392BA2}"/>
-    <hyperlink ref="Y2" r:id="rId3" xr:uid="{1AFDFC36-5038-4822-B161-96B4B2D5ED6F}"/>
-    <hyperlink ref="Y3:Y14" r:id="rId4" display="http://jl.people.com.cn/n2/2020/0219/c349771-33808273.html" xr:uid="{1DDA02A1-4D09-4CEF-9A1B-9C80E5FF17A2}"/>
+    <hyperlink ref="V2" r:id="rId1"/>
+    <hyperlink ref="V3:V14" r:id="rId2" display="http://www.jl.gov.cn/szfzt/jlzxd/yqtb/202002/t20200219_6840295.html"/>
+    <hyperlink ref="Y2" r:id="rId3"/>
+    <hyperlink ref="Y3:Y14" r:id="rId4" display="http://jl.people.com.cn/n2/2020/0219/c349771-33808273.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
           <xm:sqref>F17:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{9694F1C1-A3DA-42E8-B6C8-139E7FEB9A96}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
           <x14:formula1>
             <xm:f>[liaoningCaseStatistics_20200211.xlsx]中国各省市区县数据!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F15:F16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{D7FFD5DE-B10D-4E72-88B9-87F07558AF7D}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
           <x14:formula1>
             <xm:f>[jilinCaseStatistics_20200211.xlsx]中国各省市区县数据!#REF!</xm:f>
           </x14:formula1>
@@ -11801,7 +11825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2907"/>
   <sheetViews>
     <sheetView zoomScale="160" workbookViewId="0">
@@ -11809,10 +11833,10 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
